--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,42 +811,38 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937854</v>
+        <v>130937857</v>
       </c>
       <c r="B3" t="n">
-        <v>57877</v>
+        <v>97878</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489668</v>
+        <v>489680</v>
       </c>
       <c r="R3" t="n">
-        <v>7004128</v>
+        <v>7004154</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,43 +888,19 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -946,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937843</v>
+        <v>130937854</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -957,16 +929,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -989,10 +961,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489760</v>
+        <v>489668</v>
       </c>
       <c r="R4" t="n">
-        <v>7004232</v>
+        <v>7004128</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,7 +1001,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1081,10 +1053,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937852</v>
+        <v>130937843</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1114,7 +1086,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1124,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489520</v>
+        <v>489760</v>
       </c>
       <c r="R5" t="n">
-        <v>7004161</v>
+        <v>7004232</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1136,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1216,50 +1188,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937863</v>
+        <v>130937852</v>
       </c>
       <c r="B6" t="n">
-        <v>99009</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1267,10 +1231,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489799</v>
+        <v>489520</v>
       </c>
       <c r="R6" t="n">
-        <v>7004245</v>
+        <v>7004161</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1307,7 +1271,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1316,13 +1280,32 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1340,37 +1323,49 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937857</v>
+        <v>130937863</v>
       </c>
       <c r="B7" t="n">
-        <v>97874</v>
+        <v>99013</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1379,10 +1374,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489680</v>
+        <v>489799</v>
       </c>
       <c r="R7" t="n">
-        <v>7004154</v>
+        <v>7004245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1417,6 +1412,11 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
         <v>130937848</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>130937845</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>130937849</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>130937856</v>
       </c>
       <c r="B11" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>130937862</v>
       </c>
       <c r="B12" t="n">
-        <v>99346</v>
+        <v>99350</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>130937850</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>130937847</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>130937851</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>130937844</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>130937859</v>
       </c>
       <c r="B17" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>130937853</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>130937846</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>130937860</v>
       </c>
       <c r="B20" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>130937858</v>
       </c>
       <c r="B21" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,38 +811,42 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937857</v>
+        <v>130937854</v>
       </c>
       <c r="B3" t="n">
-        <v>97878</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -850,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489680</v>
+        <v>489668</v>
       </c>
       <c r="R3" t="n">
-        <v>7004154</v>
+        <v>7004128</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -888,19 +892,43 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -918,10 +946,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937854</v>
+        <v>130937843</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -929,16 +957,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -961,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489668</v>
+        <v>489760</v>
       </c>
       <c r="R4" t="n">
-        <v>7004128</v>
+        <v>7004232</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1001,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1053,7 +1081,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937843</v>
+        <v>130937852</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1086,7 +1114,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1096,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489760</v>
+        <v>489520</v>
       </c>
       <c r="R5" t="n">
-        <v>7004232</v>
+        <v>7004161</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1188,42 +1216,50 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937852</v>
+        <v>130937863</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>99013</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1231,10 +1267,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489520</v>
+        <v>489799</v>
       </c>
       <c r="R6" t="n">
-        <v>7004161</v>
+        <v>7004245</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1271,7 +1307,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1280,32 +1316,13 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1323,49 +1340,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937863</v>
+        <v>130937857</v>
       </c>
       <c r="B7" t="n">
-        <v>99013</v>
+        <v>97878</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1374,10 +1379,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489799</v>
+        <v>489680</v>
       </c>
       <c r="R7" t="n">
-        <v>7004245</v>
+        <v>7004154</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1412,11 +1417,6 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,42 +811,50 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937854</v>
+        <v>130937863</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>99013</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489668</v>
+        <v>489799</v>
       </c>
       <c r="R3" t="n">
-        <v>7004128</v>
+        <v>7004245</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,32 +911,13 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -946,42 +935,38 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937843</v>
+        <v>130937857</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -989,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489760</v>
+        <v>489680</v>
       </c>
       <c r="R4" t="n">
-        <v>7004232</v>
+        <v>7004154</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,43 +1012,19 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1081,10 +1042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937852</v>
+        <v>130937854</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1092,16 +1053,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1114,7 +1075,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1124,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489520</v>
+        <v>489668</v>
       </c>
       <c r="R5" t="n">
-        <v>7004161</v>
+        <v>7004128</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1125,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1216,50 +1177,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937863</v>
+        <v>130937843</v>
       </c>
       <c r="B6" t="n">
-        <v>99013</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1267,10 +1220,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489799</v>
+        <v>489760</v>
       </c>
       <c r="R6" t="n">
-        <v>7004245</v>
+        <v>7004232</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1307,7 +1260,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1316,13 +1269,32 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1340,38 +1312,42 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937857</v>
+        <v>130937852</v>
       </c>
       <c r="B7" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1379,10 +1355,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489680</v>
+        <v>489520</v>
       </c>
       <c r="R7" t="n">
-        <v>7004154</v>
+        <v>7004161</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1417,19 +1393,43 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -2862,42 +2862,38 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130937846</v>
+        <v>130937860</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2905,10 +2901,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489591</v>
+        <v>489614</v>
       </c>
       <c r="R19" t="n">
-        <v>7004206</v>
+        <v>7004216</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2954,32 +2950,13 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2997,38 +2974,42 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130937860</v>
+        <v>130937846</v>
       </c>
       <c r="B20" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3036,10 +3017,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489614</v>
+        <v>489591</v>
       </c>
       <c r="R20" t="n">
-        <v>7004216</v>
+        <v>7004206</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3076,7 +3057,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3085,13 +3066,32 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,49 +811,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937863</v>
+        <v>130937857</v>
       </c>
       <c r="B3" t="n">
-        <v>99013</v>
+        <v>97878</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -862,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489799</v>
+        <v>489680</v>
       </c>
       <c r="R3" t="n">
-        <v>7004245</v>
+        <v>7004154</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -900,11 +888,6 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -917,7 +900,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -935,38 +918,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937857</v>
+        <v>130937854</v>
       </c>
       <c r="B4" t="n">
-        <v>97878</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221945</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -974,10 +961,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489680</v>
+        <v>489668</v>
       </c>
       <c r="R4" t="n">
-        <v>7004154</v>
+        <v>7004128</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,19 +999,43 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1042,10 +1053,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937854</v>
+        <v>130937843</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1053,16 +1064,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1085,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489668</v>
+        <v>489760</v>
       </c>
       <c r="R5" t="n">
-        <v>7004128</v>
+        <v>7004232</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1125,7 +1136,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1177,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937843</v>
+        <v>130937852</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1210,7 +1221,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1220,10 +1231,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489760</v>
+        <v>489520</v>
       </c>
       <c r="R6" t="n">
-        <v>7004232</v>
+        <v>7004161</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1260,7 +1271,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1312,42 +1323,50 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937852</v>
+        <v>130937863</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>99013</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1355,10 +1374,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489520</v>
+        <v>489799</v>
       </c>
       <c r="R7" t="n">
-        <v>7004161</v>
+        <v>7004245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1395,7 +1414,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1404,32 +1423,13 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1717,42 +1717,38 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130937849</v>
+        <v>130937856</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1760,10 +1756,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489552</v>
+        <v>489713</v>
       </c>
       <c r="R10" t="n">
-        <v>7004190</v>
+        <v>7004214</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1800,7 +1796,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska och äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1809,32 +1805,13 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1852,38 +1829,42 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130937856</v>
+        <v>130937849</v>
       </c>
       <c r="B11" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1891,10 +1872,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489713</v>
+        <v>489552</v>
       </c>
       <c r="R11" t="n">
-        <v>7004214</v>
+        <v>7004190</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1931,7 +1912,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack (savhack), färska och äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1940,13 +1921,32 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,38 +811,42 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937857</v>
+        <v>130937854</v>
       </c>
       <c r="B3" t="n">
-        <v>97878</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -850,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489680</v>
+        <v>489668</v>
       </c>
       <c r="R3" t="n">
-        <v>7004154</v>
+        <v>7004128</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -888,19 +892,43 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -918,42 +946,50 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937854</v>
+        <v>130937863</v>
       </c>
       <c r="B4" t="n">
-        <v>57881</v>
+        <v>99013</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -961,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489668</v>
+        <v>489799</v>
       </c>
       <c r="R4" t="n">
-        <v>7004128</v>
+        <v>7004245</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1001,7 +1037,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1010,32 +1046,13 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1323,49 +1340,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937863</v>
+        <v>130937857</v>
       </c>
       <c r="B7" t="n">
-        <v>99013</v>
+        <v>97878</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1374,10 +1379,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489799</v>
+        <v>489680</v>
       </c>
       <c r="R7" t="n">
-        <v>7004245</v>
+        <v>7004154</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1412,11 +1417,6 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1717,38 +1717,42 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130937856</v>
+        <v>130937849</v>
       </c>
       <c r="B10" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1756,10 +1760,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489713</v>
+        <v>489552</v>
       </c>
       <c r="R10" t="n">
-        <v>7004214</v>
+        <v>7004190</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1796,7 +1800,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack (savhack), färska och äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1805,13 +1809,32 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1829,42 +1852,38 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130937849</v>
+        <v>130937856</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1872,10 +1891,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489552</v>
+        <v>489713</v>
       </c>
       <c r="R11" t="n">
-        <v>7004190</v>
+        <v>7004214</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1912,7 +1931,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska och äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1921,32 +1940,13 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2862,38 +2862,42 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130937860</v>
+        <v>130937846</v>
       </c>
       <c r="B19" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2901,10 +2905,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489614</v>
+        <v>489591</v>
       </c>
       <c r="R19" t="n">
-        <v>7004216</v>
+        <v>7004206</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2941,7 +2945,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2950,13 +2954,32 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2974,42 +2997,38 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130937846</v>
+        <v>130937860</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3017,10 +3036,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489591</v>
+        <v>489614</v>
       </c>
       <c r="R20" t="n">
-        <v>7004206</v>
+        <v>7004216</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3057,7 +3076,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3066,32 +3085,13 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -946,50 +946,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937863</v>
+        <v>130937843</v>
       </c>
       <c r="B4" t="n">
-        <v>99013</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -997,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489799</v>
+        <v>489760</v>
       </c>
       <c r="R4" t="n">
-        <v>7004245</v>
+        <v>7004232</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,13 +1038,32 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1070,7 +1081,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937843</v>
+        <v>130937852</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1103,7 +1114,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1113,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489760</v>
+        <v>489520</v>
       </c>
       <c r="R5" t="n">
-        <v>7004232</v>
+        <v>7004161</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1205,42 +1216,38 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937852</v>
+        <v>130937857</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1248,10 +1255,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489520</v>
+        <v>489680</v>
       </c>
       <c r="R6" t="n">
-        <v>7004161</v>
+        <v>7004154</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1286,43 +1293,19 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1340,37 +1323,49 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937857</v>
+        <v>130937863</v>
       </c>
       <c r="B7" t="n">
-        <v>97878</v>
+        <v>99013</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1379,10 +1374,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489680</v>
+        <v>489799</v>
       </c>
       <c r="R7" t="n">
-        <v>7004154</v>
+        <v>7004245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1417,6 +1412,11 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937854</v>
+        <v>130937843</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489668</v>
+        <v>489760</v>
       </c>
       <c r="R3" t="n">
-        <v>7004128</v>
+        <v>7004232</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -946,7 +946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937843</v>
+        <v>130937852</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -979,7 +979,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489760</v>
+        <v>489520</v>
       </c>
       <c r="R4" t="n">
-        <v>7004232</v>
+        <v>7004161</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1081,10 +1081,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937852</v>
+        <v>130937854</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1092,16 +1092,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1114,7 +1114,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489520</v>
+        <v>489668</v>
       </c>
       <c r="R5" t="n">
-        <v>7004161</v>
+        <v>7004128</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1216,37 +1216,49 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937857</v>
+        <v>130937863</v>
       </c>
       <c r="B6" t="n">
-        <v>97878</v>
+        <v>99013</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1255,10 +1267,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489680</v>
+        <v>489799</v>
       </c>
       <c r="R6" t="n">
-        <v>7004154</v>
+        <v>7004245</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1293,6 +1305,11 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1305,7 +1322,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1323,49 +1340,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937863</v>
+        <v>130937857</v>
       </c>
       <c r="B7" t="n">
-        <v>99013</v>
+        <v>97878</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1374,10 +1379,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489799</v>
+        <v>489680</v>
       </c>
       <c r="R7" t="n">
-        <v>7004245</v>
+        <v>7004154</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1412,11 +1417,6 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1717,42 +1717,38 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130937849</v>
+        <v>130937856</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1760,10 +1756,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489552</v>
+        <v>489713</v>
       </c>
       <c r="R10" t="n">
-        <v>7004190</v>
+        <v>7004214</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1800,7 +1796,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska och äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1809,32 +1805,13 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1852,38 +1829,42 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130937856</v>
+        <v>130937849</v>
       </c>
       <c r="B11" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1891,10 +1872,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489713</v>
+        <v>489552</v>
       </c>
       <c r="R11" t="n">
-        <v>7004214</v>
+        <v>7004190</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1931,7 +1912,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack (savhack), färska och äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1940,13 +1921,32 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2862,42 +2862,38 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130937846</v>
+        <v>130937860</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2905,10 +2901,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489591</v>
+        <v>489614</v>
       </c>
       <c r="R19" t="n">
-        <v>7004206</v>
+        <v>7004216</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2954,32 +2950,13 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2997,38 +2974,42 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130937860</v>
+        <v>130937846</v>
       </c>
       <c r="B20" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3036,10 +3017,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489614</v>
+        <v>489591</v>
       </c>
       <c r="R20" t="n">
-        <v>7004216</v>
+        <v>7004206</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3076,7 +3057,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3085,13 +3066,32 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937843</v>
+        <v>130937854</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489760</v>
+        <v>489668</v>
       </c>
       <c r="R3" t="n">
-        <v>7004232</v>
+        <v>7004128</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -946,7 +946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937852</v>
+        <v>130937843</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -979,7 +979,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489520</v>
+        <v>489760</v>
       </c>
       <c r="R4" t="n">
-        <v>7004161</v>
+        <v>7004232</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1081,10 +1081,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937854</v>
+        <v>130937852</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1092,16 +1092,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1114,7 +1114,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489668</v>
+        <v>489520</v>
       </c>
       <c r="R5" t="n">
-        <v>7004128</v>
+        <v>7004161</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1216,49 +1216,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937863</v>
+        <v>130937857</v>
       </c>
       <c r="B6" t="n">
-        <v>99013</v>
+        <v>97878</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1267,10 +1255,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489799</v>
+        <v>489680</v>
       </c>
       <c r="R6" t="n">
-        <v>7004245</v>
+        <v>7004154</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1305,11 +1293,6 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1322,7 +1305,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1340,37 +1323,49 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937857</v>
+        <v>130937863</v>
       </c>
       <c r="B7" t="n">
-        <v>97878</v>
+        <v>99013</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1379,10 +1374,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489680</v>
+        <v>489799</v>
       </c>
       <c r="R7" t="n">
-        <v>7004154</v>
+        <v>7004245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1417,6 +1412,11 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1717,38 +1717,42 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130937856</v>
+        <v>130937849</v>
       </c>
       <c r="B10" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1756,10 +1760,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489713</v>
+        <v>489552</v>
       </c>
       <c r="R10" t="n">
-        <v>7004214</v>
+        <v>7004190</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1796,7 +1800,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack (savhack), färska och äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1805,13 +1809,32 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1829,42 +1852,38 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130937849</v>
+        <v>130937856</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1872,10 +1891,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489552</v>
+        <v>489713</v>
       </c>
       <c r="R11" t="n">
-        <v>7004190</v>
+        <v>7004214</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1912,7 +1931,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack (savhack), färska och äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1921,32 +1940,13 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2862,38 +2862,42 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130937860</v>
+        <v>130937846</v>
       </c>
       <c r="B19" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2901,10 +2905,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489614</v>
+        <v>489591</v>
       </c>
       <c r="R19" t="n">
-        <v>7004216</v>
+        <v>7004206</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2941,7 +2945,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2950,13 +2954,32 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2974,42 +2997,38 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130937846</v>
+        <v>130937860</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3017,10 +3036,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489591</v>
+        <v>489614</v>
       </c>
       <c r="R20" t="n">
-        <v>7004206</v>
+        <v>7004216</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3057,7 +3076,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3066,32 +3085,13 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,42 +811,50 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937854</v>
+        <v>130937863</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>99013</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489668</v>
+        <v>489799</v>
       </c>
       <c r="R3" t="n">
-        <v>7004128</v>
+        <v>7004245</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,32 +911,13 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -946,42 +935,38 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937843</v>
+        <v>130937857</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>97878</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -989,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489760</v>
+        <v>489680</v>
       </c>
       <c r="R4" t="n">
-        <v>7004232</v>
+        <v>7004154</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,43 +1012,19 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1081,7 +1042,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937852</v>
+        <v>130937843</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1114,7 +1075,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1124,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489520</v>
+        <v>489760</v>
       </c>
       <c r="R5" t="n">
-        <v>7004161</v>
+        <v>7004232</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1125,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1216,38 +1177,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937857</v>
+        <v>130937852</v>
       </c>
       <c r="B6" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1255,10 +1220,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489680</v>
+        <v>489520</v>
       </c>
       <c r="R6" t="n">
-        <v>7004154</v>
+        <v>7004161</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1293,19 +1258,43 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1323,50 +1312,42 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937863</v>
+        <v>130937854</v>
       </c>
       <c r="B7" t="n">
-        <v>99013</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1374,10 +1355,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489799</v>
+        <v>489668</v>
       </c>
       <c r="R7" t="n">
-        <v>7004245</v>
+        <v>7004128</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1414,7 +1395,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1423,13 +1404,32 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,50 +811,42 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937863</v>
+        <v>130937843</v>
       </c>
       <c r="B3" t="n">
-        <v>99013</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -862,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489799</v>
+        <v>489760</v>
       </c>
       <c r="R3" t="n">
-        <v>7004245</v>
+        <v>7004232</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,13 +903,32 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -935,38 +946,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937857</v>
+        <v>130937852</v>
       </c>
       <c r="B4" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -974,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489680</v>
+        <v>489520</v>
       </c>
       <c r="R4" t="n">
-        <v>7004154</v>
+        <v>7004161</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,19 +1027,43 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1042,10 +1081,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937843</v>
+        <v>130937854</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1053,16 +1092,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1085,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489760</v>
+        <v>489668</v>
       </c>
       <c r="R5" t="n">
-        <v>7004232</v>
+        <v>7004128</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1125,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1177,42 +1216,38 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937852</v>
+        <v>130937857</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1220,10 +1255,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489520</v>
+        <v>489680</v>
       </c>
       <c r="R6" t="n">
-        <v>7004161</v>
+        <v>7004154</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,43 +1293,19 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1312,42 +1323,50 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937854</v>
+        <v>130937863</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>99014</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1355,10 +1374,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489668</v>
+        <v>489799</v>
       </c>
       <c r="R7" t="n">
-        <v>7004128</v>
+        <v>7004245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1395,7 +1414,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1404,32 +1423,13 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1855,7 +1855,7 @@
         <v>130937856</v>
       </c>
       <c r="B11" t="n">
-        <v>97878</v>
+        <v>97879</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>130937862</v>
       </c>
       <c r="B12" t="n">
-        <v>99350</v>
+        <v>99351</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>130937859</v>
       </c>
       <c r="B17" t="n">
-        <v>97878</v>
+        <v>97879</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2862,42 +2862,38 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130937846</v>
+        <v>130937860</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2905,10 +2901,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489591</v>
+        <v>489614</v>
       </c>
       <c r="R19" t="n">
-        <v>7004206</v>
+        <v>7004216</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2954,32 +2950,13 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2997,38 +2974,42 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130937860</v>
+        <v>130937846</v>
       </c>
       <c r="B20" t="n">
-        <v>97878</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3036,10 +3017,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489614</v>
+        <v>489591</v>
       </c>
       <c r="R20" t="n">
-        <v>7004216</v>
+        <v>7004206</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3076,7 +3057,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3085,13 +3066,32 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
         <v>130937858</v>
       </c>
       <c r="B21" t="n">
-        <v>97878</v>
+        <v>97879</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937843</v>
+        <v>130937854</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489760</v>
+        <v>489668</v>
       </c>
       <c r="R3" t="n">
-        <v>7004232</v>
+        <v>7004128</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -946,7 +946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937852</v>
+        <v>130937843</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -979,7 +979,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489520</v>
+        <v>489760</v>
       </c>
       <c r="R4" t="n">
-        <v>7004161</v>
+        <v>7004232</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1081,10 +1081,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937854</v>
+        <v>130937852</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1092,16 +1092,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1114,7 +1114,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489668</v>
+        <v>489520</v>
       </c>
       <c r="R5" t="n">
-        <v>7004128</v>
+        <v>7004161</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -2862,38 +2862,42 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130937860</v>
+        <v>130937846</v>
       </c>
       <c r="B19" t="n">
-        <v>97879</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2901,10 +2905,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489614</v>
+        <v>489591</v>
       </c>
       <c r="R19" t="n">
-        <v>7004216</v>
+        <v>7004206</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2941,7 +2945,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2950,13 +2954,32 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2974,42 +2997,38 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130937846</v>
+        <v>130937860</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3017,10 +3036,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489591</v>
+        <v>489614</v>
       </c>
       <c r="R20" t="n">
-        <v>7004206</v>
+        <v>7004216</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3057,7 +3076,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3066,32 +3085,13 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937854</v>
+        <v>130937843</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489668</v>
+        <v>489760</v>
       </c>
       <c r="R3" t="n">
-        <v>7004128</v>
+        <v>7004232</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -946,7 +946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937843</v>
+        <v>130937852</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -979,7 +979,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489760</v>
+        <v>489520</v>
       </c>
       <c r="R4" t="n">
-        <v>7004232</v>
+        <v>7004161</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1081,42 +1081,50 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937852</v>
+        <v>130937863</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>99014</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1124,10 +1132,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489520</v>
+        <v>489799</v>
       </c>
       <c r="R5" t="n">
-        <v>7004161</v>
+        <v>7004245</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1172,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1173,32 +1181,13 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1323,50 +1312,42 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937863</v>
+        <v>130937854</v>
       </c>
       <c r="B7" t="n">
-        <v>99014</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1374,10 +1355,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489799</v>
+        <v>489668</v>
       </c>
       <c r="R7" t="n">
-        <v>7004245</v>
+        <v>7004128</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1414,7 +1395,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1423,13 +1404,32 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -1205,38 +1205,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937857</v>
+        <v>130937854</v>
       </c>
       <c r="B6" t="n">
-        <v>97879</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1244,10 +1248,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489680</v>
+        <v>489668</v>
       </c>
       <c r="R6" t="n">
-        <v>7004154</v>
+        <v>7004128</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1282,19 +1286,43 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1312,42 +1340,38 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937854</v>
+        <v>130937857</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>97879</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1355,10 +1379,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489668</v>
+        <v>489680</v>
       </c>
       <c r="R7" t="n">
-        <v>7004128</v>
+        <v>7004154</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1393,43 +1417,19 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -2862,42 +2862,38 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130937846</v>
+        <v>130937860</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2905,10 +2901,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489591</v>
+        <v>489614</v>
       </c>
       <c r="R19" t="n">
-        <v>7004206</v>
+        <v>7004216</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2954,32 +2950,13 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2997,38 +2974,42 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130937860</v>
+        <v>130937846</v>
       </c>
       <c r="B20" t="n">
-        <v>97879</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3036,10 +3017,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489614</v>
+        <v>489591</v>
       </c>
       <c r="R20" t="n">
-        <v>7004216</v>
+        <v>7004206</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3076,7 +3057,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3085,13 +3066,32 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937843</v>
+        <v>130937854</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489760</v>
+        <v>489668</v>
       </c>
       <c r="R3" t="n">
-        <v>7004232</v>
+        <v>7004128</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -946,7 +946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937852</v>
+        <v>130937843</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -979,7 +979,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489520</v>
+        <v>489760</v>
       </c>
       <c r="R4" t="n">
-        <v>7004161</v>
+        <v>7004232</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1081,50 +1081,42 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937863</v>
+        <v>130937852</v>
       </c>
       <c r="B5" t="n">
-        <v>99014</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1132,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489799</v>
+        <v>489520</v>
       </c>
       <c r="R5" t="n">
-        <v>7004245</v>
+        <v>7004161</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1172,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1181,13 +1173,32 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1205,42 +1216,38 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937854</v>
+        <v>130937857</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>97879</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1248,10 +1255,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489668</v>
+        <v>489680</v>
       </c>
       <c r="R6" t="n">
-        <v>7004128</v>
+        <v>7004154</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1286,43 +1293,19 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1340,37 +1323,49 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937857</v>
+        <v>130937863</v>
       </c>
       <c r="B7" t="n">
-        <v>97879</v>
+        <v>99014</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1379,10 +1374,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489680</v>
+        <v>489799</v>
       </c>
       <c r="R7" t="n">
-        <v>7004154</v>
+        <v>7004245</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1417,6 +1412,11 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -2862,38 +2862,42 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130937860</v>
+        <v>130937846</v>
       </c>
       <c r="B19" t="n">
-        <v>97879</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2901,10 +2905,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489614</v>
+        <v>489591</v>
       </c>
       <c r="R19" t="n">
-        <v>7004216</v>
+        <v>7004206</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2941,7 +2945,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Växer här i barrblandskog.</t>
+          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2950,13 +2954,32 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2974,42 +2997,38 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130937846</v>
+        <v>130937860</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>97879</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -3017,10 +3036,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489591</v>
+        <v>489614</v>
       </c>
       <c r="R20" t="n">
-        <v>7004206</v>
+        <v>7004216</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3057,7 +3076,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack, främst färska och några äldre, längs flera meter på en granstam vid kant mot yngre skog. Fyndplatsen finns i barrblandskog intill några rotvältor.</t>
+          <t>Växer här i barrblandskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3066,32 +3085,13 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,42 +811,50 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937854</v>
+        <v>130937863</v>
       </c>
       <c r="B3" t="n">
-        <v>57881</v>
+        <v>99015</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -854,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489668</v>
+        <v>489799</v>
       </c>
       <c r="R3" t="n">
-        <v>7004128</v>
+        <v>7004245</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -903,32 +911,13 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1216,38 +1205,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937857</v>
+        <v>130937854</v>
       </c>
       <c r="B6" t="n">
-        <v>97879</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1255,10 +1248,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489680</v>
+        <v>489668</v>
       </c>
       <c r="R6" t="n">
-        <v>7004154</v>
+        <v>7004128</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1293,19 +1286,43 @@
           <t>2026-01-28</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1323,49 +1340,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130937863</v>
+        <v>130937857</v>
       </c>
       <c r="B7" t="n">
-        <v>99014</v>
+        <v>97880</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1374,10 +1379,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489799</v>
+        <v>489680</v>
       </c>
       <c r="R7" t="n">
-        <v>7004245</v>
+        <v>7004154</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1412,11 +1417,6 @@
           <t>2026-01-28</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1855,7 +1855,7 @@
         <v>130937856</v>
       </c>
       <c r="B11" t="n">
-        <v>97879</v>
+        <v>97880</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>130937862</v>
       </c>
       <c r="B12" t="n">
-        <v>99351</v>
+        <v>99352</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>130937859</v>
       </c>
       <c r="B17" t="n">
-        <v>97879</v>
+        <v>97880</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>130937860</v>
       </c>
       <c r="B20" t="n">
-        <v>97879</v>
+        <v>97880</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>130937858</v>
       </c>
       <c r="B21" t="n">
-        <v>97879</v>
+        <v>97880</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>

--- a/artfynd/A 63201-2025 artfynd.xlsx
+++ b/artfynd/A 63201-2025 artfynd.xlsx
@@ -811,50 +811,42 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130937863</v>
+        <v>130937843</v>
       </c>
       <c r="B3" t="n">
-        <v>99015</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -862,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489799</v>
+        <v>489760</v>
       </c>
       <c r="R3" t="n">
-        <v>7004245</v>
+        <v>7004232</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,7 +894,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
+          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,13 +903,32 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -935,7 +946,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130937843</v>
+        <v>130937852</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -968,7 +979,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -978,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489760</v>
+        <v>489520</v>
       </c>
       <c r="R4" t="n">
-        <v>7004232</v>
+        <v>7004161</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1018,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, i riklig mängd längs flera meter högt upp på en granstam med spår av rikligt sav/kådaflöde.</t>
+          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1070,10 +1081,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130937852</v>
+        <v>130937854</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1081,16 +1092,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1103,7 +1114,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1113,10 +1124,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489520</v>
+        <v>489668</v>
       </c>
       <c r="R5" t="n">
-        <v>7004161</v>
+        <v>7004128</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,7 +1164,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, ytliga enstaka längs flera meter på en granstam vid kanten mot yngre skog.</t>
+          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1205,42 +1216,50 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130937854</v>
+        <v>130937863</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>99015</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1248,10 +1267,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489668</v>
+        <v>489799</v>
       </c>
       <c r="R6" t="n">
-        <v>7004128</v>
+        <v>7004245</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1288,7 +1307,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, I två levande granar och i ytlig grov rotdel.</t>
+          <t>Minst 8 plantor inom ca 1 m2 yta. Grävdes varsamt fram under snötäcket. Det finns sannolikt betydligt mer knärot på fyndplatsen och i skogsbeståndet där fyndplatsen ligger.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1297,32 +1316,13 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
